--- a/geoclient-core/etc/workareas.xlsx
+++ b/geoclient-core/etc/workareas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlipper\eclipse-workspace\workareas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlipper/Workspace/geoclient/geoclient-core/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB25A1-A340-8140-BD53-A4BDE7789E7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="10290" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="21480" windowHeight="14300" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WA1" sheetId="2" r:id="rId1"/>
@@ -22,17 +23,23 @@
     <sheet name="Scratchpad - policeServiceArea" sheetId="9" r:id="rId8"/>
     <sheet name="Return &amp; Reason Codes" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="831">
   <si>
     <t>Field</t>
   </si>
@@ -2514,12 +2521,24 @@
   </si>
   <si>
     <t>760-760</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>3X</t>
+  </si>
+  <si>
+    <t>1EX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2891,20 +2910,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +2937,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -2932,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -2946,7 +2965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -2960,7 +2979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>205</v>
       </c>
@@ -2974,7 +2993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -2988,7 +3007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -3002,7 +3021,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -3016,7 +3035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>271</v>
       </c>
@@ -3030,7 +3049,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -3044,7 +3063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -3058,7 +3077,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>273</v>
       </c>
@@ -3072,7 +3091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>274</v>
       </c>
@@ -3086,7 +3105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -3100,7 +3119,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -3114,7 +3133,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -3128,7 +3147,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -3142,7 +3161,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -3156,7 +3175,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -3170,7 +3189,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>246</v>
       </c>
@@ -3184,7 +3203,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>247</v>
       </c>
@@ -3198,7 +3217,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -3212,7 +3231,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>214</v>
       </c>
@@ -3226,7 +3245,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -3240,7 +3259,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -3254,7 +3273,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>217</v>
       </c>
@@ -3268,7 +3287,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>218</v>
       </c>
@@ -3282,7 +3301,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>219</v>
       </c>
@@ -3296,7 +3315,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>220</v>
       </c>
@@ -3310,7 +3329,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>221</v>
       </c>
@@ -3324,7 +3343,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -3338,7 +3357,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>223</v>
       </c>
@@ -3352,7 +3371,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>224</v>
       </c>
@@ -3366,7 +3385,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>225</v>
       </c>
@@ -3380,7 +3399,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>226</v>
       </c>
@@ -3394,7 +3413,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>227</v>
       </c>
@@ -3408,7 +3427,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>228</v>
       </c>
@@ -3422,7 +3441,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>229</v>
       </c>
@@ -3436,7 +3455,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>230</v>
       </c>
@@ -3450,7 +3469,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>231</v>
       </c>
@@ -3464,7 +3483,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>232</v>
       </c>
@@ -3478,7 +3497,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -3492,7 +3511,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>234</v>
       </c>
@@ -3506,7 +3525,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>235</v>
       </c>
@@ -3520,7 +3539,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>236</v>
       </c>
@@ -3534,7 +3553,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>237</v>
       </c>
@@ -3548,7 +3567,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>238</v>
       </c>
@@ -3562,7 +3581,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>239</v>
       </c>
@@ -3576,7 +3595,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -3590,7 +3609,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -3604,7 +3623,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>240</v>
       </c>
@@ -3618,7 +3637,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>241</v>
       </c>
@@ -3632,7 +3651,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -3646,7 +3665,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>243</v>
       </c>
@@ -3660,7 +3679,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -3674,7 +3693,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>245</v>
       </c>
@@ -3688,7 +3707,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>213</v>
       </c>
@@ -3702,7 +3721,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>246</v>
       </c>
@@ -3716,7 +3735,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>247</v>
       </c>
@@ -3730,7 +3749,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -3744,7 +3763,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>249</v>
       </c>
@@ -3758,7 +3777,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -3772,7 +3791,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>206</v>
       </c>
@@ -3786,7 +3805,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3800,7 +3819,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -3814,7 +3833,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>251</v>
       </c>
@@ -3828,7 +3847,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -3842,7 +3861,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>253</v>
       </c>
@@ -3856,7 +3875,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>254</v>
       </c>
@@ -3870,7 +3889,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>255</v>
       </c>
@@ -3884,7 +3903,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>218</v>
       </c>
@@ -3898,7 +3917,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>256</v>
       </c>
@@ -3912,7 +3931,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>257</v>
       </c>
@@ -3926,7 +3945,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>258</v>
       </c>
@@ -3940,7 +3959,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>259</v>
       </c>
@@ -3954,7 +3973,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -3968,7 +3987,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>261</v>
       </c>
@@ -3982,7 +4001,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>262</v>
       </c>
@@ -3996,7 +4015,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>263</v>
       </c>
@@ -4010,7 +4029,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>264</v>
       </c>
@@ -4024,7 +4043,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>265</v>
       </c>
@@ -4038,7 +4057,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>266</v>
       </c>
@@ -4052,7 +4071,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>267</v>
       </c>
@@ -4066,7 +4085,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>268</v>
       </c>
@@ -4080,7 +4099,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>269</v>
       </c>
@@ -4094,7 +4113,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>270</v>
       </c>
@@ -4114,24 +4133,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="53.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" style="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4154,7 +4173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4168,7 +4187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>575</v>
       </c>
@@ -4182,7 +4201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>576</v>
       </c>
@@ -4196,7 +4215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>577</v>
       </c>
@@ -4210,7 +4229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>578</v>
       </c>
@@ -4224,7 +4243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>579</v>
       </c>
@@ -4241,7 +4260,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>580</v>
       </c>
@@ -4258,7 +4277,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>581</v>
       </c>
@@ -4275,7 +4294,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>582</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>583</v>
       </c>
@@ -4309,7 +4328,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
@@ -4326,7 +4345,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>586</v>
       </c>
@@ -4346,7 +4365,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>300</v>
       </c>
@@ -4363,7 +4382,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>588</v>
       </c>
@@ -4377,7 +4396,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>345</v>
       </c>
@@ -4391,7 +4410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>346</v>
       </c>
@@ -4405,7 +4424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>589</v>
       </c>
@@ -4422,7 +4441,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>591</v>
       </c>
@@ -4436,7 +4455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>592</v>
       </c>
@@ -4450,7 +4469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>593</v>
       </c>
@@ -4464,7 +4483,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>594</v>
       </c>
@@ -4478,7 +4497,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>595</v>
       </c>
@@ -4492,7 +4511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>596</v>
       </c>
@@ -4506,7 +4525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>597</v>
       </c>
@@ -4520,7 +4539,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>598</v>
       </c>
@@ -4534,7 +4553,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>599</v>
       </c>
@@ -4548,7 +4567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>600</v>
       </c>
@@ -4562,7 +4581,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>602</v>
       </c>
@@ -4579,7 +4598,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>603</v>
       </c>
@@ -4593,7 +4612,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>604</v>
       </c>
@@ -4610,7 +4629,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>605</v>
       </c>
@@ -4624,7 +4643,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>606</v>
       </c>
@@ -4638,7 +4657,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>607</v>
       </c>
@@ -4652,7 +4671,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>608</v>
       </c>
@@ -4666,7 +4685,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>609</v>
       </c>
@@ -4680,7 +4699,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>610</v>
       </c>
@@ -4694,7 +4713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>611</v>
       </c>
@@ -4708,7 +4727,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>612</v>
       </c>
@@ -4722,7 +4741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>613</v>
       </c>
@@ -4736,7 +4755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>614</v>
       </c>
@@ -4750,7 +4769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>615</v>
       </c>
@@ -4764,7 +4783,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>617</v>
       </c>
@@ -4781,7 +4800,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>618</v>
       </c>
@@ -4798,7 +4817,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>619</v>
       </c>
@@ -4815,7 +4834,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>621</v>
       </c>
@@ -4832,7 +4851,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>622</v>
       </c>
@@ -4846,7 +4865,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>623</v>
       </c>
@@ -4860,7 +4879,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>624</v>
       </c>
@@ -4874,7 +4893,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>625</v>
       </c>
@@ -4888,7 +4907,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>626</v>
       </c>
@@ -4902,7 +4921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>574</v>
       </c>
@@ -4919,7 +4938,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>629</v>
       </c>
@@ -4936,7 +4955,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>630</v>
       </c>
@@ -4953,7 +4972,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>631</v>
       </c>
@@ -4967,7 +4986,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>634</v>
       </c>
@@ -4987,7 +5006,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>632</v>
       </c>
@@ -5001,7 +5020,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>633</v>
       </c>
@@ -5015,7 +5034,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>301</v>
       </c>
@@ -5042,24 +5061,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="53.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" style="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +5101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5096,7 +5115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>575</v>
       </c>
@@ -5110,7 +5129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>576</v>
       </c>
@@ -5124,7 +5143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>577</v>
       </c>
@@ -5138,7 +5157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>578</v>
       </c>
@@ -5152,7 +5171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>579</v>
       </c>
@@ -5169,7 +5188,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>580</v>
       </c>
@@ -5186,7 +5205,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>581</v>
       </c>
@@ -5203,7 +5222,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>582</v>
       </c>
@@ -5220,7 +5239,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>583</v>
       </c>
@@ -5237,7 +5256,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
@@ -5254,7 +5273,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>586</v>
       </c>
@@ -5274,7 +5293,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>300</v>
       </c>
@@ -5291,7 +5310,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>588</v>
       </c>
@@ -5305,7 +5324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>345</v>
       </c>
@@ -5319,7 +5338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>346</v>
       </c>
@@ -5333,7 +5352,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>589</v>
       </c>
@@ -5350,7 +5369,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>591</v>
       </c>
@@ -5364,7 +5383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>592</v>
       </c>
@@ -5378,7 +5397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>593</v>
       </c>
@@ -5392,7 +5411,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>594</v>
       </c>
@@ -5406,7 +5425,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>595</v>
       </c>
@@ -5420,7 +5439,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>596</v>
       </c>
@@ -5434,7 +5453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>597</v>
       </c>
@@ -5448,7 +5467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>598</v>
       </c>
@@ -5462,7 +5481,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>599</v>
       </c>
@@ -5476,7 +5495,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>600</v>
       </c>
@@ -5490,7 +5509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>602</v>
       </c>
@@ -5507,7 +5526,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>603</v>
       </c>
@@ -5521,7 +5540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>604</v>
       </c>
@@ -5538,7 +5557,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>605</v>
       </c>
@@ -5552,7 +5571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>606</v>
       </c>
@@ -5566,7 +5585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>607</v>
       </c>
@@ -5580,7 +5599,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>608</v>
       </c>
@@ -5594,7 +5613,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>609</v>
       </c>
@@ -5608,7 +5627,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>610</v>
       </c>
@@ -5622,7 +5641,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>611</v>
       </c>
@@ -5636,7 +5655,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>612</v>
       </c>
@@ -5650,7 +5669,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>613</v>
       </c>
@@ -5664,7 +5683,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>614</v>
       </c>
@@ -5678,7 +5697,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>615</v>
       </c>
@@ -5692,7 +5711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>617</v>
       </c>
@@ -5709,7 +5728,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>618</v>
       </c>
@@ -5726,7 +5745,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>619</v>
       </c>
@@ -5743,7 +5762,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>621</v>
       </c>
@@ -5760,7 +5779,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>622</v>
       </c>
@@ -5774,7 +5793,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>623</v>
       </c>
@@ -5788,7 +5807,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>624</v>
       </c>
@@ -5802,7 +5821,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>625</v>
       </c>
@@ -5816,7 +5835,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>626</v>
       </c>
@@ -5830,7 +5849,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>574</v>
       </c>
@@ -5847,7 +5866,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>629</v>
       </c>
@@ -5864,7 +5883,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>630</v>
       </c>
@@ -5881,7 +5900,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>631</v>
       </c>
@@ -5895,7 +5914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>634</v>
       </c>
@@ -5915,7 +5934,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>632</v>
       </c>
@@ -5929,7 +5948,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>633</v>
       </c>
@@ -5943,7 +5962,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>301</v>
       </c>
@@ -5960,7 +5979,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>302</v>
       </c>
@@ -5974,7 +5993,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>695</v>
       </c>
@@ -5988,7 +6007,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>696</v>
       </c>
@@ -6002,7 +6021,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>697</v>
       </c>
@@ -6016,7 +6035,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>698</v>
       </c>
@@ -6030,7 +6049,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>699</v>
       </c>
@@ -6044,7 +6063,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>639</v>
       </c>
@@ -6061,7 +6080,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>641</v>
       </c>
@@ -6078,7 +6097,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>700</v>
       </c>
@@ -6092,7 +6111,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>701</v>
       </c>
@@ -6106,7 +6125,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>702</v>
       </c>
@@ -6120,7 +6139,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>703</v>
       </c>
@@ -6134,7 +6153,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>341</v>
       </c>
@@ -6148,7 +6167,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>342</v>
       </c>
@@ -6162,7 +6181,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>303</v>
       </c>
@@ -6176,12 +6195,12 @@
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>644</v>
       </c>
@@ -6198,12 +6217,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E77" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>647</v>
       </c>
@@ -6220,7 +6239,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>648</v>
       </c>
@@ -6234,7 +6253,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>649</v>
       </c>
@@ -6248,7 +6267,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>650</v>
       </c>
@@ -6262,7 +6281,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>651</v>
       </c>
@@ -6276,7 +6295,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>652</v>
       </c>
@@ -6290,7 +6309,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>653</v>
       </c>
@@ -6305,23 +6324,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6338,7 +6357,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6355,7 +6374,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6372,7 +6391,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6389,7 +6408,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6406,7 +6425,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6423,7 +6442,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6440,7 +6459,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6457,7 +6476,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6474,7 +6493,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6491,7 +6510,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6508,7 +6527,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6525,7 +6544,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6542,7 +6561,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6559,7 +6578,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6576,7 +6595,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6593,7 +6612,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6610,7 +6629,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6627,7 +6646,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6644,7 +6663,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6661,7 +6680,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6678,7 +6697,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6695,7 +6714,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6712,7 +6731,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6729,7 +6748,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6746,7 +6765,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -6763,7 +6782,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6780,7 +6799,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6797,7 +6816,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6814,7 +6833,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6831,7 +6850,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6848,7 +6867,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6865,7 +6884,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6882,7 +6901,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -6899,7 +6918,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6916,7 +6935,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -6933,7 +6952,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -6950,7 +6969,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -6967,7 +6986,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -6984,7 +7003,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -7001,7 +7020,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -7018,7 +7037,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -7035,7 +7054,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -7052,7 +7071,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7069,7 +7088,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -7086,7 +7105,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -7103,7 +7122,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -7120,7 +7139,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -7137,7 +7156,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -7154,7 +7173,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -7171,7 +7190,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -7188,7 +7207,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -7205,7 +7224,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -7222,7 +7241,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -7239,7 +7258,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -7256,7 +7275,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -7273,7 +7292,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7290,7 +7309,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7307,7 +7326,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -7324,7 +7343,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7341,7 +7360,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7358,7 +7377,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7375,7 +7394,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7392,7 +7411,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7409,7 +7428,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7426,7 +7445,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -7443,7 +7462,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -7460,7 +7479,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -7477,7 +7496,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -7494,7 +7513,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -7511,7 +7530,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -7528,7 +7547,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -7545,7 +7564,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -7562,7 +7581,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -7579,7 +7598,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -7596,7 +7615,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -7613,7 +7632,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -7630,7 +7649,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -7647,7 +7666,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -7664,7 +7683,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -7681,7 +7700,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -7698,7 +7717,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -7715,7 +7734,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -7732,7 +7751,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -7749,7 +7768,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -7766,7 +7785,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -7783,7 +7802,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -7800,7 +7819,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -7817,7 +7836,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -7834,7 +7853,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -7851,7 +7870,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -7868,7 +7887,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -7885,7 +7904,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -7902,7 +7921,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -7919,7 +7938,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -7936,7 +7955,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -7953,7 +7972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -7970,7 +7989,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -7987,7 +8006,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -8004,7 +8023,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -8021,7 +8040,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -8038,7 +8057,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -8055,7 +8074,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -8072,7 +8091,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -8089,7 +8108,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -8106,7 +8125,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -8123,7 +8142,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -8140,7 +8159,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -8157,7 +8176,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -8174,7 +8193,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -8191,7 +8210,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -8208,7 +8227,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -8225,7 +8244,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -8242,7 +8261,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -8259,7 +8278,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -8276,7 +8295,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -8293,7 +8312,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -8310,7 +8329,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -8327,7 +8346,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -8344,7 +8363,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -8361,7 +8380,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -8378,7 +8397,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -8395,7 +8414,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -8412,7 +8431,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -8429,7 +8448,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -8446,7 +8465,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -8463,7 +8482,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -8480,7 +8499,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>74</v>
       </c>
@@ -8497,7 +8516,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>75</v>
       </c>
@@ -8514,7 +8533,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>76</v>
       </c>
@@ -8531,7 +8550,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>77</v>
       </c>
@@ -8548,7 +8567,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>78</v>
       </c>
@@ -8565,7 +8584,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -8582,7 +8601,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>124</v>
       </c>
@@ -8599,7 +8618,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>125</v>
       </c>
@@ -8616,7 +8635,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>126</v>
       </c>
@@ -8633,7 +8652,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -8650,7 +8669,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -8667,7 +8686,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>129</v>
       </c>
@@ -8684,7 +8703,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>130</v>
       </c>
@@ -8701,7 +8720,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -8718,7 +8737,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>131</v>
       </c>
@@ -8735,7 +8754,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>132</v>
       </c>
@@ -8752,7 +8771,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -8769,7 +8788,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>134</v>
       </c>
@@ -8786,7 +8805,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -8803,7 +8822,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>135</v>
       </c>
@@ -8820,7 +8839,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>136</v>
       </c>
@@ -8837,7 +8856,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>137</v>
       </c>
@@ -8854,7 +8873,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>138</v>
       </c>
@@ -8871,7 +8890,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>139</v>
       </c>
@@ -8888,7 +8907,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>140</v>
       </c>
@@ -8905,7 +8924,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>141</v>
       </c>
@@ -8922,7 +8941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -8939,7 +8958,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -8956,7 +8975,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>142</v>
       </c>
@@ -8973,7 +8992,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>143</v>
       </c>
@@ -8990,7 +9009,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>144</v>
       </c>
@@ -9007,7 +9026,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -9024,7 +9043,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -9041,7 +9060,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>146</v>
       </c>
@@ -9058,7 +9077,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -9075,7 +9094,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>148</v>
       </c>
@@ -9092,7 +9111,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -9109,7 +9128,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>149</v>
       </c>
@@ -9126,7 +9145,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>150</v>
       </c>
@@ -9143,7 +9162,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>151</v>
       </c>
@@ -9160,7 +9179,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -9177,7 +9196,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>153</v>
       </c>
@@ -9194,7 +9213,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>154</v>
       </c>
@@ -9211,7 +9230,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>155</v>
       </c>
@@ -9228,7 +9247,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>156</v>
       </c>
@@ -9245,7 +9264,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>157</v>
       </c>
@@ -9262,7 +9281,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>158</v>
       </c>
@@ -9279,7 +9298,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>159</v>
       </c>
@@ -9296,7 +9315,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>160</v>
       </c>
@@ -9313,7 +9332,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -9330,7 +9349,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>161</v>
       </c>
@@ -9347,7 +9366,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -9364,7 +9383,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>162</v>
       </c>
@@ -9381,7 +9400,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>163</v>
       </c>
@@ -9398,7 +9417,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>164</v>
       </c>
@@ -9415,7 +9434,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -9432,7 +9451,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>165</v>
       </c>
@@ -9449,7 +9468,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>166</v>
       </c>
@@ -9466,7 +9485,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>167</v>
       </c>
@@ -9483,7 +9502,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>168</v>
       </c>
@@ -9500,7 +9519,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>169</v>
       </c>
@@ -9517,7 +9536,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>170</v>
       </c>
@@ -9534,7 +9553,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>171</v>
       </c>
@@ -9551,7 +9570,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>172</v>
       </c>
@@ -9568,7 +9587,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>173</v>
       </c>
@@ -9585,7 +9604,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>45</v>
       </c>
@@ -9602,7 +9621,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>174</v>
       </c>
@@ -9619,7 +9638,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>175</v>
       </c>
@@ -9636,7 +9655,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>176</v>
       </c>
@@ -9653,7 +9672,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>177</v>
       </c>
@@ -9670,7 +9689,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>178</v>
       </c>
@@ -9687,7 +9706,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>179</v>
       </c>
@@ -9704,7 +9723,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>180</v>
       </c>
@@ -9721,7 +9740,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>181</v>
       </c>
@@ -9738,7 +9757,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>182</v>
       </c>
@@ -9755,7 +9774,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>183</v>
       </c>
@@ -9772,7 +9791,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>45</v>
       </c>
@@ -9789,7 +9808,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>119</v>
       </c>
@@ -9806,7 +9825,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>120</v>
       </c>
@@ -9823,7 +9842,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -9840,7 +9859,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>185</v>
       </c>
@@ -9857,7 +9876,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>186</v>
       </c>
@@ -9874,7 +9893,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>187</v>
       </c>
@@ -9891,7 +9910,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>188</v>
       </c>
@@ -9908,7 +9927,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>189</v>
       </c>
@@ -9925,7 +9944,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>190</v>
       </c>
@@ -9942,7 +9961,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>45</v>
       </c>
@@ -9959,7 +9978,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -9976,7 +9995,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>131</v>
       </c>
@@ -9993,7 +10012,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>132</v>
       </c>
@@ -10010,7 +10029,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>133</v>
       </c>
@@ -10027,7 +10046,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>134</v>
       </c>
@@ -10044,7 +10063,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>45</v>
       </c>
@@ -10061,7 +10080,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>191</v>
       </c>
@@ -10078,7 +10097,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>192</v>
       </c>
@@ -10095,7 +10114,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>193</v>
       </c>
@@ -10112,7 +10131,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>161</v>
       </c>
@@ -10129,7 +10148,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -10146,7 +10165,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>194</v>
       </c>
@@ -10163,7 +10182,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>195</v>
       </c>
@@ -10180,7 +10199,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>196</v>
       </c>
@@ -10197,7 +10216,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -10214,7 +10233,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>198</v>
       </c>
@@ -10231,7 +10250,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>186</v>
       </c>
@@ -10248,7 +10267,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>197</v>
       </c>
@@ -10265,7 +10284,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>45</v>
       </c>
@@ -10289,21 +10308,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="58.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10326,7 +10345,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -10340,7 +10359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -10357,7 +10376,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>296</v>
       </c>
@@ -10374,7 +10393,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -10394,7 +10413,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>297</v>
       </c>
@@ -10408,7 +10427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -10422,7 +10441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -10436,7 +10455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -10450,7 +10469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -10464,7 +10483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -10478,7 +10497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>323</v>
       </c>
@@ -10492,7 +10511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>324</v>
       </c>
@@ -10509,7 +10528,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>325</v>
       </c>
@@ -10526,7 +10545,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -10540,7 +10559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>326</v>
       </c>
@@ -10554,7 +10573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>303</v>
       </c>
@@ -10568,7 +10587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -10582,7 +10601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>328</v>
       </c>
@@ -10599,7 +10618,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>304</v>
       </c>
@@ -10613,7 +10632,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>329</v>
       </c>
@@ -10633,7 +10652,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>331</v>
       </c>
@@ -10653,7 +10672,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>332</v>
       </c>
@@ -10670,7 +10689,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>333</v>
       </c>
@@ -10687,7 +10706,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>338</v>
       </c>
@@ -10707,7 +10726,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>330</v>
       </c>
@@ -10727,7 +10746,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>334</v>
       </c>
@@ -10747,7 +10766,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -10764,7 +10783,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>336</v>
       </c>
@@ -10781,7 +10800,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>339</v>
       </c>
@@ -10801,7 +10820,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>305</v>
       </c>
@@ -10815,7 +10834,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -10829,7 +10848,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>306</v>
       </c>
@@ -10843,7 +10862,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>307</v>
       </c>
@@ -10857,7 +10876,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -10871,7 +10890,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>342</v>
       </c>
@@ -10885,7 +10904,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>345</v>
       </c>
@@ -10902,7 +10921,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>346</v>
       </c>
@@ -10919,7 +10938,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -10933,7 +10952,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -10947,7 +10966,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>348</v>
       </c>
@@ -10964,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -10981,7 +11000,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>350</v>
       </c>
@@ -10998,7 +11017,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>314</v>
       </c>
@@ -11015,7 +11034,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>315</v>
       </c>
@@ -11032,7 +11051,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>316</v>
       </c>
@@ -11049,7 +11068,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>317</v>
       </c>
@@ -11066,7 +11085,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>318</v>
       </c>
@@ -11083,7 +11102,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>319</v>
       </c>
@@ -11097,7 +11116,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>320</v>
       </c>
@@ -11114,7 +11133,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>351</v>
       </c>
@@ -11134,7 +11153,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>309</v>
       </c>
@@ -11155,16 +11174,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D400"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
       <selection activeCell="J391" sqref="J391"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>708</v>
       </c>
@@ -11178,7 +11197,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>704</v>
       </c>
@@ -11190,7 +11209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>705</v>
       </c>
@@ -11202,7 +11221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>706</v>
       </c>
@@ -11214,7 +11233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>707</v>
       </c>
@@ -11226,7 +11245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>709</v>
       </c>
@@ -11238,7 +11257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>704</v>
       </c>
@@ -11250,7 +11269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>705</v>
       </c>
@@ -11262,7 +11281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>706</v>
       </c>
@@ -11274,7 +11293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>707</v>
       </c>
@@ -11286,7 +11305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>710</v>
       </c>
@@ -11298,7 +11317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>704</v>
       </c>
@@ -11310,7 +11329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>705</v>
       </c>
@@ -11322,7 +11341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>706</v>
       </c>
@@ -11334,7 +11353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>707</v>
       </c>
@@ -11346,7 +11365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>711</v>
       </c>
@@ -11358,7 +11377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>704</v>
       </c>
@@ -11370,7 +11389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>705</v>
       </c>
@@ -11382,7 +11401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>706</v>
       </c>
@@ -11394,7 +11413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>707</v>
       </c>
@@ -11406,7 +11425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>712</v>
       </c>
@@ -11421,7 +11440,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>704</v>
       </c>
@@ -11433,7 +11452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>705</v>
       </c>
@@ -11445,7 +11464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>706</v>
       </c>
@@ -11457,7 +11476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>707</v>
       </c>
@@ -11469,7 +11488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>713</v>
       </c>
@@ -11481,7 +11500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>704</v>
       </c>
@@ -11493,7 +11512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>705</v>
       </c>
@@ -11505,7 +11524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>706</v>
       </c>
@@ -11517,7 +11536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>707</v>
       </c>
@@ -11529,7 +11548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>716</v>
       </c>
@@ -11541,7 +11560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>704</v>
       </c>
@@ -11553,7 +11572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>705</v>
       </c>
@@ -11565,7 +11584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>706</v>
       </c>
@@ -11577,7 +11596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>707</v>
       </c>
@@ -11589,7 +11608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>715</v>
       </c>
@@ -11601,7 +11620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>704</v>
       </c>
@@ -11613,7 +11632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>705</v>
       </c>
@@ -11625,7 +11644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>706</v>
       </c>
@@ -11637,7 +11656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>707</v>
       </c>
@@ -11649,7 +11668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>717</v>
       </c>
@@ -11664,7 +11683,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>704</v>
       </c>
@@ -11676,7 +11695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>705</v>
       </c>
@@ -11688,7 +11707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>706</v>
       </c>
@@ -11700,7 +11719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>707</v>
       </c>
@@ -11712,7 +11731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>718</v>
       </c>
@@ -11724,7 +11743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>704</v>
       </c>
@@ -11736,7 +11755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>705</v>
       </c>
@@ -11748,7 +11767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>706</v>
       </c>
@@ -11760,7 +11779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>707</v>
       </c>
@@ -11772,7 +11791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>719</v>
       </c>
@@ -11784,7 +11803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>704</v>
       </c>
@@ -11796,7 +11815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>705</v>
       </c>
@@ -11808,7 +11827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>706</v>
       </c>
@@ -11820,7 +11839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>707</v>
       </c>
@@ -11832,7 +11851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>720</v>
       </c>
@@ -11844,7 +11863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>704</v>
       </c>
@@ -11856,7 +11875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>705</v>
       </c>
@@ -11868,7 +11887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -11880,7 +11899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>707</v>
       </c>
@@ -11892,7 +11911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>721</v>
       </c>
@@ -11907,7 +11926,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>704</v>
       </c>
@@ -11919,7 +11938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>705</v>
       </c>
@@ -11931,7 +11950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>706</v>
       </c>
@@ -11943,7 +11962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>707</v>
       </c>
@@ -11955,7 +11974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>722</v>
       </c>
@@ -11967,7 +11986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>704</v>
       </c>
@@ -11979,7 +11998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>705</v>
       </c>
@@ -11991,7 +12010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>706</v>
       </c>
@@ -12003,7 +12022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>707</v>
       </c>
@@ -12015,7 +12034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>723</v>
       </c>
@@ -12027,7 +12046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>704</v>
       </c>
@@ -12039,7 +12058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>705</v>
       </c>
@@ -12051,7 +12070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>706</v>
       </c>
@@ -12063,7 +12082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>707</v>
       </c>
@@ -12075,7 +12094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>724</v>
       </c>
@@ -12087,7 +12106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>704</v>
       </c>
@@ -12099,7 +12118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>705</v>
       </c>
@@ -12111,7 +12130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>706</v>
       </c>
@@ -12123,7 +12142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>707</v>
       </c>
@@ -12135,7 +12154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>725</v>
       </c>
@@ -12150,7 +12169,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>704</v>
       </c>
@@ -12162,7 +12181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>705</v>
       </c>
@@ -12174,7 +12193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>706</v>
       </c>
@@ -12186,7 +12205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>707</v>
       </c>
@@ -12198,7 +12217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>726</v>
       </c>
@@ -12210,7 +12229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>704</v>
       </c>
@@ -12222,7 +12241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>705</v>
       </c>
@@ -12234,7 +12253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>706</v>
       </c>
@@ -12246,7 +12265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>707</v>
       </c>
@@ -12258,7 +12277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>727</v>
       </c>
@@ -12270,7 +12289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>704</v>
       </c>
@@ -12282,7 +12301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>705</v>
       </c>
@@ -12294,7 +12313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>706</v>
       </c>
@@ -12306,7 +12325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>707</v>
       </c>
@@ -12318,7 +12337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>728</v>
       </c>
@@ -12330,7 +12349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>704</v>
       </c>
@@ -12342,7 +12361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>705</v>
       </c>
@@ -12354,7 +12373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>706</v>
       </c>
@@ -12366,7 +12385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>707</v>
       </c>
@@ -12378,7 +12397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>735</v>
       </c>
@@ -12393,7 +12412,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>704</v>
       </c>
@@ -12405,7 +12424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>705</v>
       </c>
@@ -12417,7 +12436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>706</v>
       </c>
@@ -12429,7 +12448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>707</v>
       </c>
@@ -12441,7 +12460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>736</v>
       </c>
@@ -12453,7 +12472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>704</v>
       </c>
@@ -12465,7 +12484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>705</v>
       </c>
@@ -12477,7 +12496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>706</v>
       </c>
@@ -12489,7 +12508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>707</v>
       </c>
@@ -12501,7 +12520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>737</v>
       </c>
@@ -12513,7 +12532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>704</v>
       </c>
@@ -12525,7 +12544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>705</v>
       </c>
@@ -12537,7 +12556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>706</v>
       </c>
@@ -12549,7 +12568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>707</v>
       </c>
@@ -12561,7 +12580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>738</v>
       </c>
@@ -12573,7 +12592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>704</v>
       </c>
@@ -12585,7 +12604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>705</v>
       </c>
@@ -12597,7 +12616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>706</v>
       </c>
@@ -12609,7 +12628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>707</v>
       </c>
@@ -12621,7 +12640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>739</v>
       </c>
@@ -12636,7 +12655,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>704</v>
       </c>
@@ -12648,7 +12667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>705</v>
       </c>
@@ -12660,7 +12679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>706</v>
       </c>
@@ -12672,7 +12691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>707</v>
       </c>
@@ -12684,7 +12703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>742</v>
       </c>
@@ -12696,7 +12715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>704</v>
       </c>
@@ -12708,7 +12727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>705</v>
       </c>
@@ -12720,7 +12739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>706</v>
       </c>
@@ -12732,7 +12751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>707</v>
       </c>
@@ -12744,7 +12763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>714</v>
       </c>
@@ -12756,7 +12775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>704</v>
       </c>
@@ -12768,7 +12787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>705</v>
       </c>
@@ -12780,7 +12799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>706</v>
       </c>
@@ -12792,7 +12811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>707</v>
       </c>
@@ -12804,7 +12823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>743</v>
       </c>
@@ -12816,7 +12835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>704</v>
       </c>
@@ -12828,7 +12847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>705</v>
       </c>
@@ -12840,7 +12859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>706</v>
       </c>
@@ -12852,7 +12871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>707</v>
       </c>
@@ -12864,7 +12883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>744</v>
       </c>
@@ -12879,7 +12898,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>704</v>
       </c>
@@ -12891,7 +12910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>705</v>
       </c>
@@ -12903,7 +12922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>706</v>
       </c>
@@ -12915,7 +12934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>707</v>
       </c>
@@ -12927,7 +12946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>745</v>
       </c>
@@ -12939,7 +12958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>704</v>
       </c>
@@ -12951,7 +12970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>705</v>
       </c>
@@ -12963,7 +12982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>706</v>
       </c>
@@ -12975,7 +12994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>707</v>
       </c>
@@ -12987,7 +13006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>746</v>
       </c>
@@ -12999,7 +13018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>704</v>
       </c>
@@ -13011,7 +13030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>705</v>
       </c>
@@ -13023,7 +13042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>706</v>
       </c>
@@ -13035,7 +13054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>707</v>
       </c>
@@ -13047,7 +13066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>747</v>
       </c>
@@ -13059,7 +13078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>704</v>
       </c>
@@ -13071,7 +13090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>705</v>
       </c>
@@ -13083,7 +13102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>706</v>
       </c>
@@ -13095,7 +13114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>707</v>
       </c>
@@ -13107,7 +13126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>748</v>
       </c>
@@ -13122,7 +13141,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>704</v>
       </c>
@@ -13134,7 +13153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>705</v>
       </c>
@@ -13146,7 +13165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>706</v>
       </c>
@@ -13158,7 +13177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>707</v>
       </c>
@@ -13170,7 +13189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>749</v>
       </c>
@@ -13182,7 +13201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>704</v>
       </c>
@@ -13194,7 +13213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>705</v>
       </c>
@@ -13206,7 +13225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>706</v>
       </c>
@@ -13218,7 +13237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>707</v>
       </c>
@@ -13230,7 +13249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>750</v>
       </c>
@@ -13242,7 +13261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>704</v>
       </c>
@@ -13254,7 +13273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>705</v>
       </c>
@@ -13266,7 +13285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>706</v>
       </c>
@@ -13278,7 +13297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>707</v>
       </c>
@@ -13290,7 +13309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>751</v>
       </c>
@@ -13302,7 +13321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>704</v>
       </c>
@@ -13314,7 +13333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>705</v>
       </c>
@@ -13326,7 +13345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>706</v>
       </c>
@@ -13338,7 +13357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>707</v>
       </c>
@@ -13350,7 +13369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>752</v>
       </c>
@@ -13365,7 +13384,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>704</v>
       </c>
@@ -13377,7 +13396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>705</v>
       </c>
@@ -13389,7 +13408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>706</v>
       </c>
@@ -13401,7 +13420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>707</v>
       </c>
@@ -13413,7 +13432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>753</v>
       </c>
@@ -13425,7 +13444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>704</v>
       </c>
@@ -13437,7 +13456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>705</v>
       </c>
@@ -13449,7 +13468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>706</v>
       </c>
@@ -13461,7 +13480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>707</v>
       </c>
@@ -13473,7 +13492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>756</v>
       </c>
@@ -13485,7 +13504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>704</v>
       </c>
@@ -13497,7 +13516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>705</v>
       </c>
@@ -13509,7 +13528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>706</v>
       </c>
@@ -13521,7 +13540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>707</v>
       </c>
@@ -13533,7 +13552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>757</v>
       </c>
@@ -13545,7 +13564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>704</v>
       </c>
@@ -13557,7 +13576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>705</v>
       </c>
@@ -13569,7 +13588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>706</v>
       </c>
@@ -13581,7 +13600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>707</v>
       </c>
@@ -13593,7 +13612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>758</v>
       </c>
@@ -13608,7 +13627,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>704</v>
       </c>
@@ -13620,7 +13639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>705</v>
       </c>
@@ -13632,7 +13651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>706</v>
       </c>
@@ -13644,7 +13663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>707</v>
       </c>
@@ -13656,7 +13675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>760</v>
       </c>
@@ -13668,7 +13687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>704</v>
       </c>
@@ -13680,7 +13699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>705</v>
       </c>
@@ -13692,7 +13711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>706</v>
       </c>
@@ -13704,7 +13723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>707</v>
       </c>
@@ -13716,7 +13735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>761</v>
       </c>
@@ -13728,7 +13747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>704</v>
       </c>
@@ -13740,7 +13759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>705</v>
       </c>
@@ -13752,7 +13771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>706</v>
       </c>
@@ -13764,7 +13783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>707</v>
       </c>
@@ -13776,7 +13795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>762</v>
       </c>
@@ -13788,7 +13807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>704</v>
       </c>
@@ -13800,7 +13819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>705</v>
       </c>
@@ -13812,7 +13831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>706</v>
       </c>
@@ -13824,7 +13843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>707</v>
       </c>
@@ -13836,7 +13855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>763</v>
       </c>
@@ -13851,7 +13870,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>704</v>
       </c>
@@ -13863,7 +13882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>705</v>
       </c>
@@ -13875,7 +13894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>706</v>
       </c>
@@ -13887,7 +13906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>707</v>
       </c>
@@ -13899,7 +13918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>765</v>
       </c>
@@ -13911,7 +13930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>704</v>
       </c>
@@ -13923,7 +13942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>705</v>
       </c>
@@ -13935,7 +13954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>706</v>
       </c>
@@ -13947,7 +13966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>707</v>
       </c>
@@ -13959,7 +13978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>766</v>
       </c>
@@ -13971,7 +13990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>704</v>
       </c>
@@ -13983,7 +14002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>705</v>
       </c>
@@ -13995,7 +14014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>706</v>
       </c>
@@ -14007,7 +14026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>707</v>
       </c>
@@ -14019,7 +14038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>767</v>
       </c>
@@ -14031,7 +14050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>704</v>
       </c>
@@ -14043,7 +14062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>705</v>
       </c>
@@ -14055,7 +14074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>706</v>
       </c>
@@ -14067,7 +14086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>707</v>
       </c>
@@ -14079,7 +14098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>768</v>
       </c>
@@ -14094,7 +14113,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>704</v>
       </c>
@@ -14106,7 +14125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>705</v>
       </c>
@@ -14118,7 +14137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>706</v>
       </c>
@@ -14130,7 +14149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>707</v>
       </c>
@@ -14142,7 +14161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>769</v>
       </c>
@@ -14154,7 +14173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>704</v>
       </c>
@@ -14166,7 +14185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>705</v>
       </c>
@@ -14178,7 +14197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>706</v>
       </c>
@@ -14190,7 +14209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>707</v>
       </c>
@@ -14202,7 +14221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>770</v>
       </c>
@@ -14214,7 +14233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>704</v>
       </c>
@@ -14226,7 +14245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>705</v>
       </c>
@@ -14238,7 +14257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>706</v>
       </c>
@@ -14250,7 +14269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>707</v>
       </c>
@@ -14262,7 +14281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>771</v>
       </c>
@@ -14274,7 +14293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>704</v>
       </c>
@@ -14286,7 +14305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>705</v>
       </c>
@@ -14298,7 +14317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>706</v>
       </c>
@@ -14310,7 +14329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>707</v>
       </c>
@@ -14322,7 +14341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>772</v>
       </c>
@@ -14337,7 +14356,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>704</v>
       </c>
@@ -14349,7 +14368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>705</v>
       </c>
@@ -14361,7 +14380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>706</v>
       </c>
@@ -14373,7 +14392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>707</v>
       </c>
@@ -14385,7 +14404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>773</v>
       </c>
@@ -14397,7 +14416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>704</v>
       </c>
@@ -14409,7 +14428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>705</v>
       </c>
@@ -14421,7 +14440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>706</v>
       </c>
@@ -14433,7 +14452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>707</v>
       </c>
@@ -14445,7 +14464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>776</v>
       </c>
@@ -14457,7 +14476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>704</v>
       </c>
@@ -14469,7 +14488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>705</v>
       </c>
@@ -14481,7 +14500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>706</v>
       </c>
@@ -14493,7 +14512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>707</v>
       </c>
@@ -14505,7 +14524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>777</v>
       </c>
@@ -14517,7 +14536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>704</v>
       </c>
@@ -14529,7 +14548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>705</v>
       </c>
@@ -14541,7 +14560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>706</v>
       </c>
@@ -14553,7 +14572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>707</v>
       </c>
@@ -14565,7 +14584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>778</v>
       </c>
@@ -14580,7 +14599,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>704</v>
       </c>
@@ -14592,7 +14611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>705</v>
       </c>
@@ -14604,7 +14623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>706</v>
       </c>
@@ -14616,7 +14635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>707</v>
       </c>
@@ -14628,7 +14647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>779</v>
       </c>
@@ -14640,7 +14659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>704</v>
       </c>
@@ -14652,7 +14671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>705</v>
       </c>
@@ -14664,7 +14683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>706</v>
       </c>
@@ -14676,7 +14695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>707</v>
       </c>
@@ -14688,7 +14707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>780</v>
       </c>
@@ -14700,7 +14719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>704</v>
       </c>
@@ -14712,7 +14731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>705</v>
       </c>
@@ -14724,7 +14743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>706</v>
       </c>
@@ -14736,7 +14755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>707</v>
       </c>
@@ -14748,7 +14767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>781</v>
       </c>
@@ -14760,7 +14779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>704</v>
       </c>
@@ -14772,7 +14791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>705</v>
       </c>
@@ -14784,7 +14803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>706</v>
       </c>
@@ -14796,7 +14815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>707</v>
       </c>
@@ -14808,7 +14827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>782</v>
       </c>
@@ -14823,7 +14842,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>704</v>
       </c>
@@ -14835,7 +14854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>705</v>
       </c>
@@ -14847,7 +14866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>706</v>
       </c>
@@ -14859,7 +14878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>707</v>
       </c>
@@ -14871,7 +14890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>783</v>
       </c>
@@ -14883,7 +14902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>704</v>
       </c>
@@ -14895,7 +14914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>705</v>
       </c>
@@ -14907,7 +14926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>706</v>
       </c>
@@ -14919,7 +14938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>707</v>
       </c>
@@ -14931,7 +14950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>784</v>
       </c>
@@ -14943,7 +14962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>704</v>
       </c>
@@ -14955,7 +14974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>705</v>
       </c>
@@ -14967,7 +14986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>706</v>
       </c>
@@ -14979,7 +14998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>707</v>
       </c>
@@ -14991,7 +15010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>785</v>
       </c>
@@ -15003,7 +15022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>704</v>
       </c>
@@ -15015,7 +15034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>705</v>
       </c>
@@ -15027,7 +15046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>706</v>
       </c>
@@ -15039,7 +15058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>707</v>
       </c>
@@ -15051,7 +15070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>786</v>
       </c>
@@ -15066,7 +15085,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>704</v>
       </c>
@@ -15078,7 +15097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>705</v>
       </c>
@@ -15090,7 +15109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>706</v>
       </c>
@@ -15102,7 +15121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>707</v>
       </c>
@@ -15114,7 +15133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>792</v>
       </c>
@@ -15126,7 +15145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>704</v>
       </c>
@@ -15138,7 +15157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>705</v>
       </c>
@@ -15150,7 +15169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>706</v>
       </c>
@@ -15162,7 +15181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>707</v>
       </c>
@@ -15174,7 +15193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>793</v>
       </c>
@@ -15186,7 +15205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>704</v>
       </c>
@@ -15198,7 +15217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>705</v>
       </c>
@@ -15210,7 +15229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>706</v>
       </c>
@@ -15222,7 +15241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>707</v>
       </c>
@@ -15234,7 +15253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>794</v>
       </c>
@@ -15246,7 +15265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>704</v>
       </c>
@@ -15258,7 +15277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>705</v>
       </c>
@@ -15270,7 +15289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>706</v>
       </c>
@@ -15282,7 +15301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>707</v>
       </c>
@@ -15294,7 +15313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>795</v>
       </c>
@@ -15309,7 +15328,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>704</v>
       </c>
@@ -15321,7 +15340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>705</v>
       </c>
@@ -15333,7 +15352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>706</v>
       </c>
@@ -15345,7 +15364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>707</v>
       </c>
@@ -15357,7 +15376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>796</v>
       </c>
@@ -15369,7 +15388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>704</v>
       </c>
@@ -15381,7 +15400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>705</v>
       </c>
@@ -15393,7 +15412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>706</v>
       </c>
@@ -15405,7 +15424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>707</v>
       </c>
@@ -15417,7 +15436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>797</v>
       </c>
@@ -15429,7 +15448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>704</v>
       </c>
@@ -15441,7 +15460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>705</v>
       </c>
@@ -15453,7 +15472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>706</v>
       </c>
@@ -15465,7 +15484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>707</v>
       </c>
@@ -15477,7 +15496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>798</v>
       </c>
@@ -15489,7 +15508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>704</v>
       </c>
@@ -15501,7 +15520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>705</v>
       </c>
@@ -15513,7 +15532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>706</v>
       </c>
@@ -15525,7 +15544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>707</v>
       </c>
@@ -15537,7 +15556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>799</v>
       </c>
@@ -15552,7 +15571,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>704</v>
       </c>
@@ -15564,7 +15583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>705</v>
       </c>
@@ -15576,7 +15595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>706</v>
       </c>
@@ -15588,7 +15607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>707</v>
       </c>
@@ -15600,7 +15619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>800</v>
       </c>
@@ -15612,7 +15631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>704</v>
       </c>
@@ -15624,7 +15643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>705</v>
       </c>
@@ -15636,7 +15655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>706</v>
       </c>
@@ -15648,7 +15667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>707</v>
       </c>
@@ -15660,7 +15679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>801</v>
       </c>
@@ -15672,7 +15691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>704</v>
       </c>
@@ -15684,7 +15703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>705</v>
       </c>
@@ -15696,7 +15715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>706</v>
       </c>
@@ -15708,7 +15727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>707</v>
       </c>
@@ -15720,7 +15739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>802</v>
       </c>
@@ -15732,7 +15751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>704</v>
       </c>
@@ -15744,7 +15763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>705</v>
       </c>
@@ -15756,7 +15775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>706</v>
       </c>
@@ -15768,7 +15787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>707</v>
       </c>
@@ -15780,7 +15799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>803</v>
       </c>
@@ -15795,7 +15814,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>704</v>
       </c>
@@ -15807,7 +15826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>705</v>
       </c>
@@ -15819,7 +15838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>706</v>
       </c>
@@ -15831,7 +15850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>707</v>
       </c>
@@ -15843,7 +15862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>804</v>
       </c>
@@ -15855,7 +15874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>704</v>
       </c>
@@ -15867,7 +15886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>705</v>
       </c>
@@ -15879,7 +15898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>706</v>
       </c>
@@ -15891,7 +15910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>707</v>
       </c>
@@ -15903,7 +15922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>805</v>
       </c>
@@ -15915,7 +15934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>704</v>
       </c>
@@ -15927,7 +15946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>705</v>
       </c>
@@ -15939,7 +15958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>706</v>
       </c>
@@ -15951,7 +15970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>707</v>
       </c>
@@ -15963,7 +15982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>806</v>
       </c>
@@ -15975,7 +15994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>704</v>
       </c>
@@ -15987,7 +16006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>705</v>
       </c>
@@ -15999,7 +16018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>706</v>
       </c>
@@ -16011,7 +16030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>707</v>
       </c>
@@ -16029,31 +16048,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>809</v>
       </c>
@@ -16069,8 +16090,23 @@
       <c r="E3" s="4" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>822</v>
       </c>
@@ -16086,8 +16122,11 @@
       <c r="E4" s="4" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>823</v>
       </c>
@@ -16104,7 +16143,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>815</v>
       </c>
@@ -16121,7 +16160,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>815</v>
       </c>
@@ -16138,7 +16177,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>820</v>
       </c>
@@ -16162,30 +16201,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>809</v>
       </c>
@@ -16198,8 +16237,17 @@
       <c r="D3" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>830</v>
+      </c>
+      <c r="G3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>813</v>
       </c>
@@ -16211,6 +16259,9 @@
       </c>
       <c r="D4" t="s">
         <v>826</v>
+      </c>
+      <c r="G4" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -16219,22 +16270,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="107.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="192.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="192.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>464</v>
       </c>
@@ -16254,7 +16305,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>465</v>
       </c>
@@ -16262,7 +16313,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>466</v>
       </c>
@@ -16279,7 +16330,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>447</v>
       </c>
@@ -16291,7 +16342,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>445</v>
       </c>
@@ -16303,7 +16354,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -16315,7 +16366,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -16327,7 +16378,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -16341,7 +16392,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>438</v>
       </c>
@@ -16353,7 +16404,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>437</v>
       </c>
@@ -16365,7 +16416,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>435</v>
       </c>
@@ -16377,7 +16428,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>434</v>
       </c>
@@ -16389,7 +16440,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>431</v>
       </c>
@@ -16401,7 +16452,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>429</v>
       </c>
@@ -16413,13 +16464,13 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
         <v>459</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>428</v>
       </c>
@@ -16431,7 +16482,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>425</v>
       </c>
@@ -16443,7 +16494,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>422</v>
       </c>
@@ -16455,7 +16506,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>419</v>
       </c>
@@ -16467,7 +16518,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>417</v>
       </c>
@@ -16479,7 +16530,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>414</v>
       </c>
@@ -16491,7 +16542,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>407</v>
       </c>
@@ -16508,7 +16559,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>407</v>
       </c>
@@ -16525,7 +16576,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>407</v>
       </c>
@@ -16542,7 +16593,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>402</v>
       </c>
@@ -16554,7 +16605,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>400</v>
       </c>
@@ -16566,7 +16617,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>399</v>
       </c>
@@ -16578,7 +16629,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>397</v>
       </c>
@@ -16590,7 +16641,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>395</v>
       </c>
@@ -16602,7 +16653,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>392</v>
       </c>
@@ -16614,7 +16665,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>389</v>
       </c>
@@ -16626,7 +16677,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>387</v>
       </c>
@@ -16638,7 +16689,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>385</v>
       </c>
@@ -16650,7 +16701,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>382</v>
       </c>
@@ -16662,7 +16713,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>380</v>
       </c>
@@ -16674,7 +16725,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>378</v>
       </c>
@@ -16688,7 +16739,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>463</v>
       </c>
@@ -16696,7 +16747,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>373</v>
       </c>
@@ -16710,7 +16761,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>369</v>
       </c>
@@ -16722,7 +16773,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>366</v>
       </c>
@@ -16737,7 +16788,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>363</v>
       </c>
@@ -16749,7 +16800,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>360</v>
       </c>
@@ -16766,7 +16817,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>356</v>
       </c>
@@ -16783,7 +16834,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>469</v>
       </c>
@@ -16791,7 +16842,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>470</v>
       </c>
@@ -16799,57 +16850,57 @@
         <v>434</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>480</v>
       </c>
@@ -16857,522 +16908,522 @@
         <v>448</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>569</v>
       </c>
